--- a/output/descriptive/d_DE_IMD.xlsx
+++ b/output/descriptive/d_DE_IMD.xlsx
@@ -362,7 +362,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -378,7 +378,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -386,7 +386,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -394,13 +394,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>274</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
